--- a/server/docs/SKLAD.xlsx
+++ b/server/docs/SKLAD.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Yillik" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Oylik" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Haftalik" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="1.01.2023 - 20.12.2023" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -24,82 +22,31 @@
     <t>Summasi</t>
   </si>
   <si>
-    <t>Sanasi</t>
-  </si>
-  <si>
-    <t>Vaqti</t>
-  </si>
-  <si>
-    <t>Ombor</t>
-  </si>
-  <si>
-    <t>12 000 so'm</t>
-  </si>
-  <si>
-    <t>19.10.2023</t>
-  </si>
-  <si>
-    <t>14:29:05</t>
-  </si>
-  <si>
-    <t>Kirim</t>
-  </si>
-  <si>
-    <t>120 000 so'm</t>
-  </si>
-  <si>
-    <t>19.11.2023</t>
-  </si>
-  <si>
-    <t>14:29:19</t>
-  </si>
-  <si>
-    <t>Betonchiga</t>
-  </si>
-  <si>
-    <t>10 000 so'm</t>
-  </si>
-  <si>
-    <t>21.11.2023</t>
-  </si>
-  <si>
-    <t>16:39:22</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>14 000 000 so'm</t>
-  </si>
-  <si>
-    <t>22.11.2023</t>
-  </si>
-  <si>
-    <t>11:29:43</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>20 000 so'm</t>
-  </si>
-  <si>
-    <t>15.11.2023</t>
-  </si>
-  <si>
-    <t>21:11:14</t>
+    <t>Sanasi va Vaqti</t>
+  </si>
+  <si>
+    <t>Svarshikka</t>
+  </si>
+  <si>
+    <t>15 000 so'm</t>
+  </si>
+  <si>
+    <t>19.11.2023 12:43:27</t>
+  </si>
+  <si>
+    <t>Eshmamat Kamaz</t>
+  </si>
+  <si>
+    <t>45 000 so'm</t>
+  </si>
+  <si>
+    <t>19.12.2023 12:43:52</t>
   </si>
   <si>
     <t>Umumiy Harajat Summasi</t>
   </si>
   <si>
-    <t>14 162 000 so'm</t>
-  </si>
-  <si>
-    <t>14 150 000 so'm</t>
-  </si>
-  <si>
-    <t>14 130 000 so'm</t>
+    <t>60 000 so'm</t>
   </si>
 </sst>
 </file>
@@ -489,16 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,304 +458,41 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SKLAD.xlsx
+++ b/server/docs/SKLAD.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="1.01.2023 - 20.12.2023" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Yillik 2024" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Oylik 01" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Haftalik 1.01.2024 - 8.01.2024" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -25,28 +27,10 @@
     <t>Sanasi va Vaqti</t>
   </si>
   <si>
-    <t>Svarshikka</t>
-  </si>
-  <si>
-    <t>15 000 so'm</t>
-  </si>
-  <si>
-    <t>19.11.2023 12:43:27</t>
-  </si>
-  <si>
-    <t>Eshmamat Kamaz</t>
-  </si>
-  <si>
-    <t>45 000 so'm</t>
-  </si>
-  <si>
-    <t>19.12.2023 12:43:52</t>
-  </si>
-  <si>
     <t>Umumiy Harajat Summasi</t>
   </si>
   <si>
-    <t>60 000 so'm</t>
+    <t>0 so'm</t>
   </si>
 </sst>
 </file>
@@ -436,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,39 +444,89 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SKLAD.xlsx
+++ b/server/docs/SKLAD.xlsx
@@ -6,14 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="Yillik 2024" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Oylik 01" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Haftalik 1.01.2024 - 8.01.2024" state="visible" r:id="rId6"/>
+    <sheet sheetId="3" name="Haftalik 9.01.2024 - 16.01.2024" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -27,10 +27,46 @@
     <t>Sanasi va Vaqti</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>12 000 so'm</t>
+  </si>
+  <si>
+    <t>09.01.2024 00:12:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test2 </t>
+  </si>
+  <si>
+    <t>14 000 so'm</t>
+  </si>
+  <si>
+    <t>09.01.2024 11:32:27</t>
+  </si>
+  <si>
+    <t>123 000 so'm</t>
+  </si>
+  <si>
+    <t>12.01.2024 21:40:57</t>
+  </si>
+  <si>
+    <t>nonga</t>
+  </si>
+  <si>
+    <t>15 000 so'm</t>
+  </si>
+  <si>
+    <t>16.01.2024 13:22:19</t>
+  </si>
+  <si>
     <t>Umumiy Harajat Summasi</t>
   </si>
   <si>
-    <t>0 so'm</t>
+    <t>164 000 so'm</t>
+  </si>
+  <si>
+    <t>138 000 so'm</t>
   </si>
 </sst>
 </file>
@@ -420,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -444,11 +480,67 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -459,13 +551,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,11 +575,67 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -498,13 +646,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,11 +670,39 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SKLAD.xlsx
+++ b/server/docs/SKLAD.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Yillik 2024" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Oylik 01" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Haftalik 9.01.2024 - 16.01.2024" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="Sheribom" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Izza" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Ibn Sino" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Test2" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Test3" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="Test4" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="Test5" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -24,49 +28,55 @@
     <t>Summasi</t>
   </si>
   <si>
+    <t>Ombor</t>
+  </si>
+  <si>
     <t>Sanasi va Vaqti</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>12 000 so'm</t>
-  </si>
-  <si>
-    <t>09.01.2024 00:12:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test2 </t>
-  </si>
-  <si>
-    <t>14 000 so'm</t>
-  </si>
-  <si>
-    <t>09.01.2024 11:32:27</t>
-  </si>
-  <si>
-    <t>123 000 so'm</t>
-  </si>
-  <si>
-    <t>12.01.2024 21:40:57</t>
-  </si>
-  <si>
-    <t>nonga</t>
-  </si>
-  <si>
-    <t>15 000 so'm</t>
-  </si>
-  <si>
-    <t>16.01.2024 13:22:19</t>
+    <t>200 000 so'm</t>
+  </si>
+  <si>
+    <t>Sheribom</t>
+  </si>
+  <si>
+    <t>25.01.2024 11:42:49</t>
+  </si>
+  <si>
+    <t>25.01.2024 11:57:12</t>
   </si>
   <si>
     <t>Umumiy Harajat Summasi</t>
   </si>
   <si>
-    <t>164 000 so'm</t>
-  </si>
-  <si>
-    <t>138 000 so'm</t>
+    <t>400 000 so'm</t>
+  </si>
+  <si>
+    <t>150 500 so'm</t>
+  </si>
+  <si>
+    <t>Izza</t>
+  </si>
+  <si>
+    <t>25.01.2024 11:58:34</t>
+  </si>
+  <si>
+    <t>Svarka</t>
+  </si>
+  <si>
+    <t>160 000 so'm</t>
+  </si>
+  <si>
+    <t>Ibn Sino</t>
+  </si>
+  <si>
+    <t>26.01.2024 11:23:17</t>
+  </si>
+  <si>
+    <t>0 so'm</t>
   </si>
 </sst>
 </file>
@@ -456,16 +466,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:Q4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,69 +499,152 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -551,16 +655,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,69 +688,105 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -646,16 +797,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,41 +830,485 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SKLAD.xlsx
+++ b/server/docs/SKLAD.xlsx
@@ -7,17 +7,13 @@
     <sheet sheetId="1" name="Sheribom" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Izza" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Ibn Sino" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Test2" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Test3" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Test4" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Test5" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +30,12 @@
     <t>Sanasi va Vaqti</t>
   </si>
   <si>
+    <t>Umumiy Harajat Summasi</t>
+  </si>
+  <si>
+    <t>0 so'm</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -49,9 +51,6 @@
     <t>25.01.2024 11:57:12</t>
   </si>
   <si>
-    <t>Umumiy Harajat Summasi</t>
-  </si>
-  <si>
     <t>400 000 so'm</t>
   </si>
   <si>
@@ -62,21 +61,6 @@
   </si>
   <si>
     <t>25.01.2024 11:58:34</t>
-  </si>
-  <si>
-    <t>Svarka</t>
-  </si>
-  <si>
-    <t>160 000 so'm</t>
-  </si>
-  <si>
-    <t>Ibn Sino</t>
-  </si>
-  <si>
-    <t>26.01.2024 11:23:17</t>
-  </si>
-  <si>
-    <t>0 so'm</t>
   </si>
 </sst>
 </file>
@@ -471,14 +455,14 @@
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -534,117 +518,57 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -660,14 +584,14 @@
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -723,70 +647,40 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -796,148 +690,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -1008,307 +760,22 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SKLAD.xlsx
+++ b/server/docs/SKLAD.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -30,28 +30,34 @@
     <t>Sanasi va Vaqti</t>
   </si>
   <si>
+    <t>qwertyui</t>
+  </si>
+  <si>
+    <t>200 000 so'm</t>
+  </si>
+  <si>
+    <t>Sheribom</t>
+  </si>
+  <si>
+    <t>05.02.2024 10:09:24</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>25.01.2024 11:42:49</t>
+  </si>
+  <si>
     <t>Umumiy Harajat Summasi</t>
   </si>
   <si>
+    <t>25.01.2024 11:57:12</t>
+  </si>
+  <si>
+    <t>600 000 so'm</t>
+  </si>
+  <si>
     <t>0 so'm</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>200 000 so'm</t>
-  </si>
-  <si>
-    <t>Sheribom</t>
-  </si>
-  <si>
-    <t>25.01.2024 11:42:49</t>
-  </si>
-  <si>
-    <t>25.01.2024 11:57:12</t>
-  </si>
-  <si>
-    <t>400 000 so'm</t>
   </si>
   <si>
     <t>150 500 so'm</t>
@@ -450,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -518,57 +524,104 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="M3" s="1">
         <v>2</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
       <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -648,39 +701,39 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -760,22 +813,22 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
